--- a/Code/Results/Cases/Case_2_134/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_134/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.030409199387776</v>
+        <v>0.5288504903118678</v>
       </c>
       <c r="C2">
-        <v>0.0712493926387765</v>
+        <v>0.09332851332715109</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06638954573014644</v>
+        <v>0.0978206075889716</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008135695000104301</v>
+        <v>0.002456794523338966</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3309296293589199</v>
+        <v>0.7969589987911156</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8446957690551642</v>
+        <v>0.3078994974998182</v>
       </c>
       <c r="L2">
-        <v>0.2558554689990444</v>
+        <v>0.2051546940440119</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8336236509879527</v>
+        <v>1.642873267952641</v>
       </c>
       <c r="O2">
-        <v>1.351355825698263</v>
+        <v>3.05790235997209</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8968964209999513</v>
+        <v>0.4907794919976425</v>
       </c>
       <c r="C3">
-        <v>0.0687042324724203</v>
+        <v>0.09249425262155597</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06142161591467143</v>
+        <v>0.09712084892509409</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.000816721501629628</v>
+        <v>0.002458877658145564</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3373345759853059</v>
+        <v>0.804172606307116</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7347816317896729</v>
+        <v>0.2748926563203611</v>
       </c>
       <c r="L3">
-        <v>0.2262273142749933</v>
+        <v>0.1980262487047781</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8690811435335242</v>
+        <v>1.658551352523155</v>
       </c>
       <c r="O3">
-        <v>1.35728120685981</v>
+        <v>3.081946286615079</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8151215210276348</v>
+        <v>0.4675359107358474</v>
       </c>
       <c r="C4">
-        <v>0.06714306229109113</v>
+        <v>0.09197939975822322</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05845217865840624</v>
+        <v>0.09674053665384719</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.000818722457473816</v>
+        <v>0.002460225474475847</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3419177975538403</v>
+        <v>0.8089730015781953</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6673445654960943</v>
+        <v>0.2546364668096004</v>
       </c>
       <c r="L4">
-        <v>0.2082435056981353</v>
+        <v>0.1937564448849542</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8918622727190098</v>
+        <v>1.668707977147392</v>
       </c>
       <c r="O4">
-        <v>1.363713999572639</v>
+        <v>3.09825133687724</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7818385301291642</v>
+        <v>0.4580978944734397</v>
       </c>
       <c r="C5">
-        <v>0.06650709324362225</v>
+        <v>0.09176895142292096</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05726146373288188</v>
+        <v>0.09659799159290827</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008195546066716526</v>
+        <v>0.002460792060917376</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3439437901586118</v>
+        <v>0.8110225748872679</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6398683819321889</v>
+        <v>0.2463849804072993</v>
       </c>
       <c r="L5">
-        <v>0.200963055304598</v>
+        <v>0.1920434963982558</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9013944479671743</v>
+        <v>1.672980275585793</v>
       </c>
       <c r="O5">
-        <v>1.367011951025347</v>
+        <v>3.105283602864219</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7763141064660601</v>
+        <v>0.4565327889958155</v>
       </c>
       <c r="C6">
-        <v>0.06640149956219688</v>
+        <v>0.09173396834481196</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0570648873641133</v>
+        <v>0.09657507396922682</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008196938027164313</v>
+        <v>0.002460887190743464</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.344289614499413</v>
+        <v>0.8113685453529484</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6353060637584491</v>
+        <v>0.245015028552956</v>
       </c>
       <c r="L6">
-        <v>0.1997569277205002</v>
+        <v>0.191760698239861</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9029921270834471</v>
+        <v>1.67369774592067</v>
       </c>
       <c r="O6">
-        <v>1.36759969020774</v>
+        <v>3.106474731415318</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8146725019870189</v>
+        <v>0.4674084880348346</v>
       </c>
       <c r="C7">
-        <v>0.06713448471750283</v>
+        <v>0.09197656415561539</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05843604316658357</v>
+        <v>0.09673856385434831</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008187336120492732</v>
+        <v>0.002460233045360803</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3419444867130821</v>
+        <v>0.8090002647369232</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6669740019200958</v>
+        <v>0.2545251712313217</v>
       </c>
       <c r="L7">
-        <v>0.208145129672701</v>
+        <v>0.1937332338780919</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8919898269182092</v>
+        <v>1.668765054675493</v>
       </c>
       <c r="O7">
-        <v>1.363755771403689</v>
+        <v>3.098344606075756</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9843257628844526</v>
+        <v>0.51569658531497</v>
       </c>
       <c r="C8">
-        <v>0.07037138615414307</v>
+        <v>0.09304141171787705</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06465920676514259</v>
+        <v>0.09756910598700586</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008146428421471866</v>
+        <v>0.002457498546505719</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3329997762485633</v>
+        <v>0.7993692234903591</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8067820194000035</v>
+        <v>0.2965169376196855</v>
       </c>
       <c r="L8">
-        <v>0.2455939126677862</v>
+        <v>0.2026746383695865</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8456364878159057</v>
+        <v>1.648169064462198</v>
       </c>
       <c r="O8">
-        <v>1.352802766754138</v>
+        <v>3.065872715522005</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.319113899002133</v>
+        <v>0.611412287532346</v>
       </c>
       <c r="C9">
-        <v>0.07674026208842122</v>
+        <v>0.09510825153324021</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07755175651332635</v>
+        <v>0.09958828279118848</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008071298618119604</v>
+        <v>0.002452679531530162</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3208706421361107</v>
+        <v>0.7834269097077815</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.081731851878089</v>
+        <v>0.3789241049839234</v>
       </c>
       <c r="L9">
-        <v>0.3208837816953007</v>
+        <v>0.2210550141449801</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7630005253753964</v>
+        <v>1.6119840819958</v>
       </c>
       <c r="O9">
-        <v>1.354736054537497</v>
+        <v>3.01442759497165</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.567109285479546</v>
+        <v>0.6823307112372561</v>
       </c>
       <c r="C10">
-        <v>0.08144642266815794</v>
+        <v>0.09661311320139987</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08751334679176637</v>
+        <v>0.1013087351629736</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0008019033467585156</v>
+        <v>0.002449467038568741</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3156216914039121</v>
+        <v>0.773507241100571</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.284803622085036</v>
+        <v>0.4394863795191952</v>
       </c>
       <c r="L10">
-        <v>0.377629842479493</v>
+        <v>0.235072049503998</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.707683374406642</v>
+        <v>1.587956372316899</v>
       </c>
       <c r="O10">
-        <v>1.372239182543751</v>
+        <v>2.98408538986088</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.680546983180875</v>
+        <v>0.7147173687435782</v>
       </c>
       <c r="C11">
-        <v>0.0835966953698275</v>
+        <v>0.09729462296643732</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09216766611410421</v>
+        <v>0.1021426537420353</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007995853985330315</v>
+        <v>0.002448076143938867</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3141142288290517</v>
+        <v>0.7693835557006139</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.37755803864215</v>
+        <v>0.4670377363888463</v>
       </c>
       <c r="L11">
-        <v>0.4038266900306979</v>
+        <v>0.2415596120729333</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6837737411726117</v>
+        <v>1.57757974998626</v>
       </c>
       <c r="O11">
-        <v>1.38411956791461</v>
+        <v>2.971900212845725</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.723607895472981</v>
+        <v>0.7269987836929772</v>
       </c>
       <c r="C12">
-        <v>0.08441261181355486</v>
+        <v>0.09755223921934686</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09394920085652458</v>
+        <v>0.1024657863305158</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007987158859320856</v>
+        <v>0.002447559532917669</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3136775520921447</v>
+        <v>0.7678779139055294</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.412747924905602</v>
+        <v>0.4774704428247958</v>
       </c>
       <c r="L12">
-        <v>0.4138079790815681</v>
+        <v>0.2440321825285281</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6749077457604642</v>
+        <v>1.57372995874621</v>
       </c>
       <c r="O12">
-        <v>1.389219606385751</v>
+        <v>2.967518585337217</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.714329061123436</v>
+        <v>0.7243530043013777</v>
       </c>
       <c r="C13">
-        <v>0.08423681090943091</v>
+        <v>0.09749677752773778</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0935646453515524</v>
+        <v>0.1023958676862939</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007989027898014457</v>
+        <v>0.002447670346410573</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3137655055203545</v>
+        <v>0.7681996943237657</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.405166031029808</v>
+        <v>0.475223599572729</v>
       </c>
       <c r="L13">
-        <v>0.4116555112160398</v>
+        <v>0.2434989661332025</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6768087051079519</v>
+        <v>1.574555539631191</v>
       </c>
       <c r="O13">
-        <v>1.388093856713937</v>
+        <v>2.968451900428306</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.684087446756962</v>
+        <v>0.7157274259532755</v>
       </c>
       <c r="C14">
-        <v>0.08366378631523474</v>
+        <v>0.09731582646018921</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09231384407681631</v>
+        <v>0.1021690909947175</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007995136999448398</v>
+        <v>0.002448033440278111</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.314075569216353</v>
+        <v>0.769258565177811</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.380451742849459</v>
+        <v>0.467896052641521</v>
       </c>
       <c r="L14">
-        <v>0.4046465957999743</v>
+        <v>0.2417627144851053</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6830405156870043</v>
+        <v>1.5772614298889</v>
       </c>
       <c r="O14">
-        <v>1.384526877513679</v>
+        <v>2.971535071260291</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.665577655219806</v>
+        <v>0.710446239418161</v>
       </c>
       <c r="C15">
-        <v>0.08331301713282357</v>
+        <v>0.09720492873310604</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.091550215199387</v>
+        <v>0.1020311395276288</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007998889635748694</v>
+        <v>0.002448257158196343</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3142831974303419</v>
+        <v>0.7699144349620823</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.365322459325995</v>
+        <v>0.4634076500474293</v>
       </c>
       <c r="L15">
-        <v>0.4003615778623697</v>
+        <v>0.2407012738274972</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6868824068343642</v>
+        <v>1.578929233135035</v>
       </c>
       <c r="O15">
-        <v>1.382421454422655</v>
+        <v>2.973453898877921</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.559709657561825</v>
+        <v>0.6802166278376944</v>
       </c>
       <c r="C16">
-        <v>0.08130611183389647</v>
+        <v>0.09656851193842186</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08721176335557956</v>
+        <v>0.1012552660629105</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0008020560021205365</v>
+        <v>0.002449559351159193</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3157385592568218</v>
+        <v>0.7737845574052891</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.278750453493615</v>
+        <v>0.4376858098140985</v>
       </c>
       <c r="L16">
-        <v>0.3759260295037592</v>
+        <v>0.2346502990472459</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.709271813440786</v>
+        <v>1.588645649880888</v>
       </c>
       <c r="O16">
-        <v>1.371544789858802</v>
+        <v>2.984914272627123</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.494932996213009</v>
+        <v>0.6617033475613709</v>
       </c>
       <c r="C17">
-        <v>0.0800775573243655</v>
+        <v>0.09617729531596098</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08458266798488623</v>
+        <v>0.1007924061922374</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0008034004514738605</v>
+        <v>0.002450376224913065</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3168620957993724</v>
+        <v>0.7762583360427584</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.225745732359542</v>
+        <v>0.421906209348947</v>
       </c>
       <c r="L17">
-        <v>0.3610378504486818</v>
+        <v>0.2309666096744536</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7233335980688516</v>
+        <v>1.594748164604965</v>
       </c>
       <c r="O17">
-        <v>1.365901980070333</v>
+        <v>2.992359172003802</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.457732896792976</v>
+        <v>0.6510668573799308</v>
       </c>
       <c r="C18">
-        <v>0.0793717919444461</v>
+        <v>0.09595199089859108</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08308194671305813</v>
+        <v>0.1005310094590826</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0008041793756516516</v>
+        <v>0.002450852706100071</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3175907033724457</v>
+        <v>0.7777177860292781</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.195293464113973</v>
+        <v>0.4128303550119483</v>
       </c>
       <c r="L18">
-        <v>0.352510207456163</v>
+        <v>0.2288583169445531</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7315391501507946</v>
+        <v>1.598310287363688</v>
       </c>
       <c r="O18">
-        <v>1.363022781246272</v>
+        <v>2.996793540400034</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.44514705930635</v>
+        <v>0.6474675844392834</v>
       </c>
       <c r="C19">
-        <v>0.07913297206587799</v>
+        <v>0.09587565792092079</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08257575618498691</v>
+        <v>0.1004433350767862</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0008044440830900833</v>
+        <v>0.002451015175709653</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3178513225001538</v>
+        <v>0.7782182165652038</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.184988455807456</v>
+        <v>0.4097574708147818</v>
       </c>
       <c r="L19">
-        <v>0.3496288371583489</v>
+        <v>0.2281462865030335</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7343373778422873</v>
+        <v>1.599525312580216</v>
       </c>
       <c r="O19">
-        <v>1.362109749775399</v>
+        <v>2.998321091421033</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.501822503726629</v>
+        <v>0.6636728959795732</v>
       </c>
       <c r="C20">
-        <v>0.08020824726345666</v>
+        <v>0.09621897081500208</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08486134326052053</v>
+        <v>0.1008411789340471</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0008032567519375671</v>
+        <v>0.002450288580845115</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3167339140449066</v>
+        <v>0.7759912103608571</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.231384507424679</v>
+        <v>0.4235859629508241</v>
       </c>
       <c r="L20">
-        <v>0.3626189907724893</v>
+        <v>0.231357662102937</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7218244732499066</v>
+        <v>1.594093147598844</v>
       </c>
       <c r="O20">
-        <v>1.366464480021463</v>
+        <v>2.991550891359921</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.692967181674931</v>
+        <v>0.7182605041779766</v>
       </c>
       <c r="C21">
-        <v>0.08383205007601191</v>
+        <v>0.0973689887034439</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09268070633036274</v>
+        <v>0.1022355016670673</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007993340397953668</v>
+        <v>0.002447926517119837</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3139807920560749</v>
+        <v>0.7689460318325416</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.387709044918296</v>
+        <v>0.4700483461082854</v>
       </c>
       <c r="L21">
-        <v>0.4067035753441104</v>
+        <v>0.242272263826294</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6812049143718575</v>
+        <v>1.576464483802752</v>
       </c>
       <c r="O21">
-        <v>1.385557956720135</v>
+        <v>2.970623155461396</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.818508145222154</v>
+        <v>0.7540370930472022</v>
       </c>
       <c r="C22">
-        <v>0.08621022125453237</v>
+        <v>0.09811792211020531</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0979028282915273</v>
+        <v>0.1031895756938823</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007968182071624138</v>
+        <v>0.002446441567024211</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3129673480588195</v>
+        <v>0.764667475515278</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.490265762883269</v>
+        <v>0.5004116319315699</v>
       </c>
       <c r="L22">
-        <v>0.4358747000781591</v>
+        <v>0.2494980451919133</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6557577633829759</v>
+        <v>1.565407159950603</v>
       </c>
       <c r="O22">
-        <v>1.401560131472394</v>
+        <v>2.958301651418452</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.751442939023548</v>
+        <v>0.7349335151694447</v>
       </c>
       <c r="C23">
-        <v>0.08493994217627687</v>
+        <v>0.09771845206143581</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09510497894814307</v>
+        <v>0.1026764611026856</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007981566863854428</v>
+        <v>0.002447228747823461</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3134337079648084</v>
+        <v>0.7669212051467156</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.435489568845782</v>
+        <v>0.4842066006997641</v>
       </c>
       <c r="L23">
-        <v>0.4202705395668858</v>
+        <v>0.2456330865761629</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6692360706463489</v>
+        <v>1.571266206409458</v>
       </c>
       <c r="O23">
-        <v>1.392683963521307</v>
+        <v>2.964753791320874</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.498707631203729</v>
+        <v>0.6627824411492611</v>
       </c>
       <c r="C24">
-        <v>0.0801491606603193</v>
+        <v>0.0962001305312512</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08473532069350043</v>
+        <v>0.1008191141121166</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0008033216998603133</v>
+        <v>0.002450328183371983</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3167916080808375</v>
+        <v>0.776111861876231</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.228835153144814</v>
+        <v>0.4228265586134228</v>
       </c>
       <c r="L24">
-        <v>0.3619040587316533</v>
+        <v>0.2311808376722269</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7225063715057658</v>
+        <v>1.594389113495556</v>
       </c>
       <c r="O24">
-        <v>1.366209039954256</v>
+        <v>2.991915834728943</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.228245823654277</v>
+        <v>0.5854119878206063</v>
       </c>
       <c r="C25">
-        <v>0.07501366469575999</v>
+        <v>0.0945514664821232</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07398327623451806</v>
+        <v>0.09900034973895799</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0008091095399115208</v>
+        <v>0.002453925366833519</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3235362662250836</v>
+        <v>0.7874247123259011</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.007208128012138</v>
+        <v>0.3566262444002746</v>
       </c>
       <c r="L25">
-        <v>0.3002874602226058</v>
+        <v>0.2159923360058542</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7844354139772349</v>
+        <v>1.621323601154312</v>
       </c>
       <c r="O25">
-        <v>1.35152598024834</v>
+        <v>3.027035589446626</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_134/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_134/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5288504903118678</v>
+        <v>1.030409199387805</v>
       </c>
       <c r="C2">
-        <v>0.09332851332715109</v>
+        <v>0.07124939263900387</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0978206075889716</v>
+        <v>0.06638954573013223</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002456794523338966</v>
+        <v>0.000813569500087985</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7969589987911156</v>
+        <v>0.3309296293588986</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3078994974998182</v>
+        <v>0.8446957690552495</v>
       </c>
       <c r="L2">
-        <v>0.2051546940440119</v>
+        <v>0.2558554689991297</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.642873267952641</v>
+        <v>0.8336236509878709</v>
       </c>
       <c r="O2">
-        <v>3.05790235997209</v>
+        <v>1.351355825698235</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4907794919976425</v>
+        <v>0.8968964209999513</v>
       </c>
       <c r="C3">
-        <v>0.09249425262155597</v>
+        <v>0.06870423247218582</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09712084892509409</v>
+        <v>0.0614216159146892</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002458877658145564</v>
+        <v>0.0008167215016453932</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.804172606307116</v>
+        <v>0.3373345759853201</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2748926563203611</v>
+        <v>0.7347816317896729</v>
       </c>
       <c r="L3">
-        <v>0.1980262487047781</v>
+        <v>0.2262273142749649</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.658551352523155</v>
+        <v>0.8690811435335135</v>
       </c>
       <c r="O3">
-        <v>3.081946286615079</v>
+        <v>1.357281206859795</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4675359107358474</v>
+        <v>0.8151215210275495</v>
       </c>
       <c r="C4">
-        <v>0.09197939975822322</v>
+        <v>0.06714306229108757</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09674053665384719</v>
+        <v>0.05845217865839203</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002460225474475847</v>
+        <v>0.0008187224575336293</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8089730015781953</v>
+        <v>0.3419177975538297</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2546364668096004</v>
+        <v>0.6673445654961085</v>
       </c>
       <c r="L4">
-        <v>0.1937564448849542</v>
+        <v>0.2082435056981069</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.668707977147392</v>
+        <v>0.8918622727190524</v>
       </c>
       <c r="O4">
-        <v>3.09825133687724</v>
+        <v>1.36371399957261</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4580978944734397</v>
+        <v>0.7818385301290789</v>
       </c>
       <c r="C5">
-        <v>0.09176895142292096</v>
+        <v>0.06650709324338422</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09659799159290827</v>
+        <v>0.05726146373293872</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002460792060917376</v>
+        <v>0.0008195546066715693</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8110225748872679</v>
+        <v>0.3439437901586118</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2463849804072993</v>
+        <v>0.6398683819321747</v>
       </c>
       <c r="L5">
-        <v>0.1920434963982558</v>
+        <v>0.2009630553046833</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.672980275585793</v>
+        <v>0.9013944479672258</v>
       </c>
       <c r="O5">
-        <v>3.105283602864219</v>
+        <v>1.367011951025319</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4565327889958155</v>
+        <v>0.7763141064661738</v>
       </c>
       <c r="C6">
-        <v>0.09173396834481196</v>
+        <v>0.06640149956201924</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09657507396922682</v>
+        <v>0.05706488736409554</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002460887190743464</v>
+        <v>0.0008196938025973117</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8113685453529484</v>
+        <v>0.344289614499413</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.245015028552956</v>
+        <v>0.6353060637584775</v>
       </c>
       <c r="L6">
-        <v>0.191760698239861</v>
+        <v>0.1997569277204576</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.67369774592067</v>
+        <v>0.9029921270834453</v>
       </c>
       <c r="O6">
-        <v>3.106474731415318</v>
+        <v>1.367599690207797</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4674084880348346</v>
+        <v>0.8146725019870189</v>
       </c>
       <c r="C7">
-        <v>0.09197656415561539</v>
+        <v>0.06713448471750638</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.09673856385434831</v>
+        <v>0.05843604316661555</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002460233045360803</v>
+        <v>0.0008187336120174424</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8090002647369232</v>
+        <v>0.3419444867130892</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2545251712313217</v>
+        <v>0.6669740019199537</v>
       </c>
       <c r="L7">
-        <v>0.1937332338780919</v>
+        <v>0.2081451296727721</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.668765054675493</v>
+        <v>0.8919898269182198</v>
       </c>
       <c r="O7">
-        <v>3.098344606075756</v>
+        <v>1.363755771403717</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.51569658531497</v>
+        <v>0.9843257628843958</v>
       </c>
       <c r="C8">
-        <v>0.09304141171787705</v>
+        <v>0.07037138615437755</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09756910598700586</v>
+        <v>0.0646592067651568</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002457498546505719</v>
+        <v>0.0008146428421303602</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7993692234903591</v>
+        <v>0.332999776248581</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2965169376196855</v>
+        <v>0.8067820194000319</v>
       </c>
       <c r="L8">
-        <v>0.2026746383695865</v>
+        <v>0.245593912667772</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.648169064462198</v>
+        <v>0.8456364878158595</v>
       </c>
       <c r="O8">
-        <v>3.065872715522005</v>
+        <v>1.352802766754152</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.611412287532346</v>
+        <v>1.319113899002133</v>
       </c>
       <c r="C9">
-        <v>0.09510825153324021</v>
+        <v>0.07674026208841411</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09958828279118848</v>
+        <v>0.0775517565133228</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002452679531530162</v>
+        <v>0.0008071298618118725</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7834269097077815</v>
+        <v>0.3208706421361072</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3789241049839234</v>
+        <v>1.081731851877919</v>
       </c>
       <c r="L9">
-        <v>0.2210550141449801</v>
+        <v>0.3208837816951728</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.6119840819958</v>
+        <v>0.7630005253753218</v>
       </c>
       <c r="O9">
-        <v>3.01442759497165</v>
+        <v>1.354736054537454</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6823307112372561</v>
+        <v>1.56710928547929</v>
       </c>
       <c r="C10">
-        <v>0.09661311320139987</v>
+        <v>0.08144642266778135</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1013087351629736</v>
+        <v>0.08751334679176637</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002449467038568741</v>
+        <v>0.0008019033467385925</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.773507241100571</v>
+        <v>0.3156216914038978</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4394863795191952</v>
+        <v>1.284803622085093</v>
       </c>
       <c r="L10">
-        <v>0.235072049503998</v>
+        <v>0.3776298424797062</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.587956372316899</v>
+        <v>0.7076833744066278</v>
       </c>
       <c r="O10">
-        <v>2.98408538986088</v>
+        <v>1.37223918254378</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7147173687435782</v>
+        <v>1.68054698318096</v>
       </c>
       <c r="C11">
-        <v>0.09729462296643732</v>
+        <v>0.08359669536991987</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1021426537420353</v>
+        <v>0.09216766611410776</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002448076143938867</v>
+        <v>0.0007995853985911904</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7693835557006139</v>
+        <v>0.3141142288290553</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4670377363888463</v>
+        <v>1.377558038642093</v>
       </c>
       <c r="L11">
-        <v>0.2415596120729333</v>
+        <v>0.4038266900306979</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.57757974998626</v>
+        <v>0.683773741172562</v>
       </c>
       <c r="O11">
-        <v>2.971900212845725</v>
+        <v>1.384119567914553</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7269987836929772</v>
+        <v>1.723607895473066</v>
       </c>
       <c r="C12">
-        <v>0.09755223921934686</v>
+        <v>0.08441261181355486</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1024657863305158</v>
+        <v>0.09394920085652458</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002447559532917669</v>
+        <v>0.0007987158859515306</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7678779139055294</v>
+        <v>0.3136775520921589</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4774704428247958</v>
+        <v>1.412747924905403</v>
       </c>
       <c r="L12">
-        <v>0.2440321825285281</v>
+        <v>0.4138079790815965</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.57372995874621</v>
+        <v>0.6749077457604571</v>
       </c>
       <c r="O12">
-        <v>2.967518585337217</v>
+        <v>1.389219606385694</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7243530043013777</v>
+        <v>1.71432906112355</v>
       </c>
       <c r="C13">
-        <v>0.09749677752773778</v>
+        <v>0.08423681090951618</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1023958676862939</v>
+        <v>0.09356464535154174</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002447670346410573</v>
+        <v>0.0007989027898595793</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7681996943237657</v>
+        <v>0.3137655055203474</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.475223599572729</v>
+        <v>1.405166031029836</v>
       </c>
       <c r="L13">
-        <v>0.2434989661332025</v>
+        <v>0.411655511216054</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.574555539631191</v>
+        <v>0.6768087051080052</v>
       </c>
       <c r="O13">
-        <v>2.968451900428306</v>
+        <v>1.388093856713937</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7157274259532755</v>
+        <v>1.684087446756934</v>
       </c>
       <c r="C14">
-        <v>0.09731582646018921</v>
+        <v>0.0836637863151708</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1021690909947175</v>
+        <v>0.09231384407683763</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002448033440278111</v>
+        <v>0.000799513700003543</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.769258565177811</v>
+        <v>0.3140755692163602</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.467896052641521</v>
+        <v>1.38045174284963</v>
       </c>
       <c r="L14">
-        <v>0.2417627144851053</v>
+        <v>0.4046465957999885</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.5772614298889</v>
+        <v>0.6830405156870647</v>
       </c>
       <c r="O14">
-        <v>2.971535071260291</v>
+        <v>1.384526877513736</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.710446239418161</v>
+        <v>1.665577655219835</v>
       </c>
       <c r="C15">
-        <v>0.09720492873310604</v>
+        <v>0.08331301713313621</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1020311395276288</v>
+        <v>0.09155021519940121</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002448257158196343</v>
+        <v>0.0007998889635755508</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7699144349620823</v>
+        <v>0.3142831974303348</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4634076500474293</v>
+        <v>1.365322459326194</v>
       </c>
       <c r="L15">
-        <v>0.2407012738274972</v>
+        <v>0.4003615778624123</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.578929233135035</v>
+        <v>0.68688240683435</v>
       </c>
       <c r="O15">
-        <v>2.973453898877921</v>
+        <v>1.382421454422683</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6802166278376944</v>
+        <v>1.559709657561825</v>
       </c>
       <c r="C16">
-        <v>0.09656851193842186</v>
+        <v>0.08130611183396752</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1012552660629105</v>
+        <v>0.08721176335557246</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002449559351159193</v>
+        <v>0.0008020560020618287</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7737845574052891</v>
+        <v>0.3157385592568325</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4376858098140985</v>
+        <v>1.2787504534937</v>
       </c>
       <c r="L16">
-        <v>0.2346502990472459</v>
+        <v>0.375926029503816</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.588645649880888</v>
+        <v>0.7092718134407825</v>
       </c>
       <c r="O16">
-        <v>2.984914272627123</v>
+        <v>1.371544789858859</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6617033475613709</v>
+        <v>1.494932996212981</v>
       </c>
       <c r="C17">
-        <v>0.09617729531596098</v>
+        <v>0.08007755732389654</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1007924061922374</v>
+        <v>0.08458266798486136</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002450376224913065</v>
+        <v>0.0008034004515500096</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7762583360427584</v>
+        <v>0.3168620957993546</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.421906209348947</v>
+        <v>1.225745732359371</v>
       </c>
       <c r="L17">
-        <v>0.2309666096744536</v>
+        <v>0.361037850448696</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.594748164604965</v>
+        <v>0.7233335980688302</v>
       </c>
       <c r="O17">
-        <v>2.992359172003802</v>
+        <v>1.365901980070177</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6510668573799308</v>
+        <v>1.457732896792834</v>
       </c>
       <c r="C18">
-        <v>0.09595199089859108</v>
+        <v>0.07937179194428978</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1005310094590826</v>
+        <v>0.08308194671308655</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002450852706100071</v>
+        <v>0.0008041793757085799</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7777177860292781</v>
+        <v>0.3175907033724528</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4128303550119483</v>
+        <v>1.195293464113973</v>
       </c>
       <c r="L18">
-        <v>0.2288583169445531</v>
+        <v>0.3525102074561062</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.598310287363688</v>
+        <v>0.73153915015072</v>
       </c>
       <c r="O18">
-        <v>2.996793540400034</v>
+        <v>1.363022781246272</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6474675844392834</v>
+        <v>1.44514705930635</v>
       </c>
       <c r="C19">
-        <v>0.09587565792092079</v>
+        <v>0.07913297206604142</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1004433350767862</v>
+        <v>0.08257575618499757</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002451015175709653</v>
+        <v>0.0008044440830890956</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7782182165652038</v>
+        <v>0.3178513225001538</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4097574708147818</v>
+        <v>1.184988455807428</v>
       </c>
       <c r="L19">
-        <v>0.2281462865030335</v>
+        <v>0.3496288371582637</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.599525312580216</v>
+        <v>0.7343373778422446</v>
       </c>
       <c r="O19">
-        <v>2.998321091421033</v>
+        <v>1.362109749775428</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6636728959795732</v>
+        <v>1.501822503726373</v>
       </c>
       <c r="C20">
-        <v>0.09621897081500208</v>
+        <v>0.08020824726322218</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1008411789340471</v>
+        <v>0.08486134326050632</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002450288580845115</v>
+        <v>0.0008032567519958979</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7759912103608571</v>
+        <v>0.3167339140449243</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4235859629508241</v>
+        <v>1.231384507424679</v>
       </c>
       <c r="L20">
-        <v>0.231357662102937</v>
+        <v>0.3626189907725035</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.594093147598844</v>
+        <v>0.7218244732499066</v>
       </c>
       <c r="O20">
-        <v>2.991550891359921</v>
+        <v>1.366464480021463</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7182605041779766</v>
+        <v>1.692967181674931</v>
       </c>
       <c r="C21">
-        <v>0.0973689887034439</v>
+        <v>0.08383205007577033</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1022355016670673</v>
+        <v>0.09268070633037695</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002447926517119837</v>
+        <v>0.0007993340397947504</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7689460318325416</v>
+        <v>0.3139807920560713</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4700483461082854</v>
+        <v>1.38770904491841</v>
       </c>
       <c r="L21">
-        <v>0.242272263826294</v>
+        <v>0.4067035753440535</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.576464483802752</v>
+        <v>0.6812049143719072</v>
       </c>
       <c r="O21">
-        <v>2.970623155461396</v>
+        <v>1.385557956720191</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7540370930472022</v>
+        <v>1.81850814522204</v>
       </c>
       <c r="C22">
-        <v>0.09811792211020531</v>
+        <v>0.08621022125453948</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1031895756938823</v>
+        <v>0.09790282829150954</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002446441567024211</v>
+        <v>0.0007968182071039605</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.764667475515278</v>
+        <v>0.3129673480588266</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5004116319315699</v>
+        <v>1.490265762883126</v>
       </c>
       <c r="L22">
-        <v>0.2494980451919133</v>
+        <v>0.4358747000782017</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.565407159950603</v>
+        <v>0.6557577633829546</v>
       </c>
       <c r="O22">
-        <v>2.958301651418452</v>
+        <v>1.401560131472365</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7349335151694447</v>
+        <v>1.751442939023548</v>
       </c>
       <c r="C23">
-        <v>0.09771845206143581</v>
+        <v>0.08493994217628398</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1026764611026856</v>
+        <v>0.09510497894812531</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002447228747823461</v>
+        <v>0.0007981566864058154</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7669212051467156</v>
+        <v>0.313433707964812</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4842066006997641</v>
+        <v>1.435489568845782</v>
       </c>
       <c r="L23">
-        <v>0.2456330865761629</v>
+        <v>0.4202705395668715</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.571266206409458</v>
+        <v>0.6692360706462885</v>
       </c>
       <c r="O23">
-        <v>2.964753791320874</v>
+        <v>1.392683963521335</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6627824411492611</v>
+        <v>1.498707631203729</v>
       </c>
       <c r="C24">
-        <v>0.0962001305312512</v>
+        <v>0.0801491606603264</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1008191141121166</v>
+        <v>0.08473532069350043</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002450328183371983</v>
+        <v>0.0008033216998993739</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.776111861876231</v>
+        <v>0.3167916080808304</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4228265586134228</v>
+        <v>1.2288351531449</v>
       </c>
       <c r="L24">
-        <v>0.2311808376722269</v>
+        <v>0.3619040587315965</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.594389113495556</v>
+        <v>0.7225063715058191</v>
       </c>
       <c r="O24">
-        <v>2.991915834728943</v>
+        <v>1.366209039954299</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5854119878206063</v>
+        <v>1.228245823654277</v>
       </c>
       <c r="C25">
-        <v>0.0945514664821232</v>
+        <v>0.07501366469599446</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09900034973895799</v>
+        <v>0.07398327623452872</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002453925366833519</v>
+        <v>0.0008091095399109423</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7874247123259011</v>
+        <v>0.3235362662250836</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3566262444002746</v>
+        <v>1.007208128012195</v>
       </c>
       <c r="L25">
-        <v>0.2159923360058542</v>
+        <v>0.3002874602224921</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.621323601154312</v>
+        <v>0.7844354139772882</v>
       </c>
       <c r="O25">
-        <v>3.027035589446626</v>
+        <v>1.351525980248397</v>
       </c>
     </row>
   </sheetData>
